--- a/results/summary_cplex_with_initialization.xlsx
+++ b/results/summary_cplex_with_initialization.xlsx
@@ -453,7 +453,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AJ113"/>
+  <dimension ref="A1:AR113"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -526,6 +526,18 @@
       <c r="AH1" s="1" t="n"/>
       <c r="AI1" s="1" t="n"/>
       <c r="AJ1" s="1" t="n"/>
+      <c r="AK1" s="1" t="inlineStr">
+        <is>
+          <t>RelGap</t>
+        </is>
+      </c>
+      <c r="AL1" s="1" t="n"/>
+      <c r="AM1" s="1" t="n"/>
+      <c r="AN1" s="1" t="n"/>
+      <c r="AO1" s="1" t="n"/>
+      <c r="AP1" s="1" t="n"/>
+      <c r="AQ1" s="1" t="n"/>
+      <c r="AR1" s="1" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr"/>
@@ -692,6 +704,46 @@
           <t>max</t>
         </is>
       </c>
+      <c r="AK2" s="1" t="inlineStr">
+        <is>
+          <t>count</t>
+        </is>
+      </c>
+      <c r="AL2" s="1" t="inlineStr">
+        <is>
+          <t>mean</t>
+        </is>
+      </c>
+      <c r="AM2" s="1" t="inlineStr">
+        <is>
+          <t>std</t>
+        </is>
+      </c>
+      <c r="AN2" s="1" t="inlineStr">
+        <is>
+          <t>min</t>
+        </is>
+      </c>
+      <c r="AO2" s="1" t="inlineStr">
+        <is>
+          <t>25%</t>
+        </is>
+      </c>
+      <c r="AP2" s="1" t="inlineStr">
+        <is>
+          <t>50%</t>
+        </is>
+      </c>
+      <c r="AQ2" s="1" t="inlineStr">
+        <is>
+          <t>75%</t>
+        </is>
+      </c>
+      <c r="AR2" s="1" t="inlineStr">
+        <is>
+          <t>max</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -804,6 +856,30 @@
       <c r="AJ4" t="n">
         <v>564.91</v>
       </c>
+      <c r="AK4" t="n">
+        <v>5</v>
+      </c>
+      <c r="AL4" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="AM4" t="n">
+        <v>0.11</v>
+      </c>
+      <c r="AN4" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="AO4" t="n">
+        <v>0.11</v>
+      </c>
+      <c r="AP4" t="n">
+        <v>0.24</v>
+      </c>
+      <c r="AQ4" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="AR4" t="n">
+        <v>0.3</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -916,6 +992,30 @@
       <c r="AJ5" t="n">
         <v>558.48</v>
       </c>
+      <c r="AK5" t="n">
+        <v>5</v>
+      </c>
+      <c r="AL5" t="n">
+        <v>0.22</v>
+      </c>
+      <c r="AM5" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="AN5" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="AO5" t="n">
+        <v>0.17</v>
+      </c>
+      <c r="AP5" t="n">
+        <v>0.26</v>
+      </c>
+      <c r="AQ5" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="AR5" t="n">
+        <v>0.31</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -1028,6 +1128,30 @@
       <c r="AJ6" t="n">
         <v>558.48</v>
       </c>
+      <c r="AK6" t="n">
+        <v>5</v>
+      </c>
+      <c r="AL6" t="n">
+        <v>0.23</v>
+      </c>
+      <c r="AM6" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="AN6" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="AO6" t="n">
+        <v>0.17</v>
+      </c>
+      <c r="AP6" t="n">
+        <v>0.27</v>
+      </c>
+      <c r="AQ6" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="AR6" t="n">
+        <v>0.32</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -1140,6 +1264,30 @@
       <c r="AJ7" t="n">
         <v>558.48</v>
       </c>
+      <c r="AK7" t="n">
+        <v>5</v>
+      </c>
+      <c r="AL7" t="n">
+        <v>0.23</v>
+      </c>
+      <c r="AM7" t="n">
+        <v>0.11</v>
+      </c>
+      <c r="AN7" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="AO7" t="n">
+        <v>0.17</v>
+      </c>
+      <c r="AP7" t="n">
+        <v>0.27</v>
+      </c>
+      <c r="AQ7" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="AR7" t="n">
+        <v>0.34</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -1252,6 +1400,30 @@
       <c r="AJ8" t="n">
         <v>558.48</v>
       </c>
+      <c r="AK8" t="n">
+        <v>5</v>
+      </c>
+      <c r="AL8" t="n">
+        <v>0.23</v>
+      </c>
+      <c r="AM8" t="n">
+        <v>0.11</v>
+      </c>
+      <c r="AN8" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="AO8" t="n">
+        <v>0.17</v>
+      </c>
+      <c r="AP8" t="n">
+        <v>0.27</v>
+      </c>
+      <c r="AQ8" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="AR8" t="n">
+        <v>0.34</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -1364,6 +1536,30 @@
       <c r="AJ9" t="n">
         <v>748.29</v>
       </c>
+      <c r="AK9" t="n">
+        <v>5</v>
+      </c>
+      <c r="AL9" t="n">
+        <v>0.16</v>
+      </c>
+      <c r="AM9" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="AN9" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="AO9" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="AP9" t="n">
+        <v>0.17</v>
+      </c>
+      <c r="AQ9" t="n">
+        <v>0.18</v>
+      </c>
+      <c r="AR9" t="n">
+        <v>0.2</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -1476,6 +1672,30 @@
       <c r="AJ10" t="n">
         <v>746.0599999999999</v>
       </c>
+      <c r="AK10" t="n">
+        <v>5</v>
+      </c>
+      <c r="AL10" t="n">
+        <v>0.21</v>
+      </c>
+      <c r="AM10" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="AN10" t="n">
+        <v>0.16</v>
+      </c>
+      <c r="AO10" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="AP10" t="n">
+        <v>0.21</v>
+      </c>
+      <c r="AQ10" t="n">
+        <v>0.23</v>
+      </c>
+      <c r="AR10" t="n">
+        <v>0.23</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -1588,6 +1808,30 @@
       <c r="AJ11" t="n">
         <v>746.0599999999999</v>
       </c>
+      <c r="AK11" t="n">
+        <v>5</v>
+      </c>
+      <c r="AL11" t="n">
+        <v>0.21</v>
+      </c>
+      <c r="AM11" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="AN11" t="n">
+        <v>0.16</v>
+      </c>
+      <c r="AO11" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="AP11" t="n">
+        <v>0.23</v>
+      </c>
+      <c r="AQ11" t="n">
+        <v>0.23</v>
+      </c>
+      <c r="AR11" t="n">
+        <v>0.24</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -1700,6 +1944,30 @@
       <c r="AJ12" t="n">
         <v>746.0599999999999</v>
       </c>
+      <c r="AK12" t="n">
+        <v>5</v>
+      </c>
+      <c r="AL12" t="n">
+        <v>0.21</v>
+      </c>
+      <c r="AM12" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="AN12" t="n">
+        <v>0.16</v>
+      </c>
+      <c r="AO12" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="AP12" t="n">
+        <v>0.23</v>
+      </c>
+      <c r="AQ12" t="n">
+        <v>0.23</v>
+      </c>
+      <c r="AR12" t="n">
+        <v>0.24</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -1812,6 +2080,30 @@
       <c r="AJ13" t="n">
         <v>746.0599999999999</v>
       </c>
+      <c r="AK13" t="n">
+        <v>5</v>
+      </c>
+      <c r="AL13" t="n">
+        <v>0.21</v>
+      </c>
+      <c r="AM13" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="AN13" t="n">
+        <v>0.16</v>
+      </c>
+      <c r="AO13" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="AP13" t="n">
+        <v>0.23</v>
+      </c>
+      <c r="AQ13" t="n">
+        <v>0.23</v>
+      </c>
+      <c r="AR13" t="n">
+        <v>0.24</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -1924,6 +2216,30 @@
       <c r="AJ14" t="n">
         <v>840.8099999999999</v>
       </c>
+      <c r="AK14" t="n">
+        <v>5</v>
+      </c>
+      <c r="AL14" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="AM14" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="AN14" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="AO14" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="AP14" t="n">
+        <v>0.18</v>
+      </c>
+      <c r="AQ14" t="n">
+        <v>0.29</v>
+      </c>
+      <c r="AR14" t="n">
+        <v>0.3</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -2036,6 +2352,30 @@
       <c r="AJ15" t="n">
         <v>811.23</v>
       </c>
+      <c r="AK15" t="n">
+        <v>5</v>
+      </c>
+      <c r="AL15" t="n">
+        <v>0.24</v>
+      </c>
+      <c r="AM15" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="AN15" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="AO15" t="n">
+        <v>0.22</v>
+      </c>
+      <c r="AP15" t="n">
+        <v>0.22</v>
+      </c>
+      <c r="AQ15" t="n">
+        <v>0.28</v>
+      </c>
+      <c r="AR15" t="n">
+        <v>0.34</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -2148,6 +2488,30 @@
       <c r="AJ16" t="n">
         <v>811.23</v>
       </c>
+      <c r="AK16" t="n">
+        <v>5</v>
+      </c>
+      <c r="AL16" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="AM16" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="AN16" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="AO16" t="n">
+        <v>0.21</v>
+      </c>
+      <c r="AP16" t="n">
+        <v>0.22</v>
+      </c>
+      <c r="AQ16" t="n">
+        <v>0.32</v>
+      </c>
+      <c r="AR16" t="n">
+        <v>0.34</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -2260,6 +2624,30 @@
       <c r="AJ17" t="n">
         <v>811.23</v>
       </c>
+      <c r="AK17" t="n">
+        <v>5</v>
+      </c>
+      <c r="AL17" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="AM17" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="AN17" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="AO17" t="n">
+        <v>0.21</v>
+      </c>
+      <c r="AP17" t="n">
+        <v>0.22</v>
+      </c>
+      <c r="AQ17" t="n">
+        <v>0.32</v>
+      </c>
+      <c r="AR17" t="n">
+        <v>0.34</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -2372,6 +2760,30 @@
       <c r="AJ18" t="n">
         <v>811.23</v>
       </c>
+      <c r="AK18" t="n">
+        <v>5</v>
+      </c>
+      <c r="AL18" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="AM18" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="AN18" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="AO18" t="n">
+        <v>0.21</v>
+      </c>
+      <c r="AP18" t="n">
+        <v>0.22</v>
+      </c>
+      <c r="AQ18" t="n">
+        <v>0.32</v>
+      </c>
+      <c r="AR18" t="n">
+        <v>0.34</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -2484,6 +2896,30 @@
       <c r="AJ19" t="n">
         <v>828.33</v>
       </c>
+      <c r="AK19" t="n">
+        <v>5</v>
+      </c>
+      <c r="AL19" t="n">
+        <v>0.23</v>
+      </c>
+      <c r="AM19" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="AN19" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="AO19" t="n">
+        <v>0.19</v>
+      </c>
+      <c r="AP19" t="n">
+        <v>0.24</v>
+      </c>
+      <c r="AQ19" t="n">
+        <v>0.27</v>
+      </c>
+      <c r="AR19" t="n">
+        <v>0.38</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -2596,6 +3032,30 @@
       <c r="AJ20" t="n">
         <v>817.26</v>
       </c>
+      <c r="AK20" t="n">
+        <v>5</v>
+      </c>
+      <c r="AL20" t="n">
+        <v>0.26</v>
+      </c>
+      <c r="AM20" t="n">
+        <v>0.11</v>
+      </c>
+      <c r="AN20" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="AO20" t="n">
+        <v>0.19</v>
+      </c>
+      <c r="AP20" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="AQ20" t="n">
+        <v>0.34</v>
+      </c>
+      <c r="AR20" t="n">
+        <v>0.4</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -2708,6 +3168,30 @@
       <c r="AJ21" t="n">
         <v>817.26</v>
       </c>
+      <c r="AK21" t="n">
+        <v>5</v>
+      </c>
+      <c r="AL21" t="n">
+        <v>0.27</v>
+      </c>
+      <c r="AM21" t="n">
+        <v>0.11</v>
+      </c>
+      <c r="AN21" t="n">
+        <v>0.14</v>
+      </c>
+      <c r="AO21" t="n">
+        <v>0.21</v>
+      </c>
+      <c r="AP21" t="n">
+        <v>0.27</v>
+      </c>
+      <c r="AQ21" t="n">
+        <v>0.34</v>
+      </c>
+      <c r="AR21" t="n">
+        <v>0.4</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -2820,6 +3304,30 @@
       <c r="AJ22" t="n">
         <v>817.26</v>
       </c>
+      <c r="AK22" t="n">
+        <v>5</v>
+      </c>
+      <c r="AL22" t="n">
+        <v>0.28</v>
+      </c>
+      <c r="AM22" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="AN22" t="n">
+        <v>0.14</v>
+      </c>
+      <c r="AO22" t="n">
+        <v>0.23</v>
+      </c>
+      <c r="AP22" t="n">
+        <v>0.27</v>
+      </c>
+      <c r="AQ22" t="n">
+        <v>0.34</v>
+      </c>
+      <c r="AR22" t="n">
+        <v>0.4</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -2932,6 +3440,30 @@
       <c r="AJ23" t="n">
         <v>817.26</v>
       </c>
+      <c r="AK23" t="n">
+        <v>5</v>
+      </c>
+      <c r="AL23" t="n">
+        <v>0.28</v>
+      </c>
+      <c r="AM23" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="AN23" t="n">
+        <v>0.14</v>
+      </c>
+      <c r="AO23" t="n">
+        <v>0.23</v>
+      </c>
+      <c r="AP23" t="n">
+        <v>0.27</v>
+      </c>
+      <c r="AQ23" t="n">
+        <v>0.34</v>
+      </c>
+      <c r="AR23" t="n">
+        <v>0.4</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -3044,6 +3576,30 @@
       <c r="AJ24" t="n">
         <v>899.28</v>
       </c>
+      <c r="AK24" t="n">
+        <v>5</v>
+      </c>
+      <c r="AL24" t="n">
+        <v>0.22</v>
+      </c>
+      <c r="AM24" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="AN24" t="n">
+        <v>0.13</v>
+      </c>
+      <c r="AO24" t="n">
+        <v>0.17</v>
+      </c>
+      <c r="AP24" t="n">
+        <v>0.23</v>
+      </c>
+      <c r="AQ24" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="AR24" t="n">
+        <v>0.3</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -3156,6 +3712,30 @@
       <c r="AJ25" t="n">
         <v>899.28</v>
       </c>
+      <c r="AK25" t="n">
+        <v>5</v>
+      </c>
+      <c r="AL25" t="n">
+        <v>0.24</v>
+      </c>
+      <c r="AM25" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="AN25" t="n">
+        <v>0.14</v>
+      </c>
+      <c r="AO25" t="n">
+        <v>0.19</v>
+      </c>
+      <c r="AP25" t="n">
+        <v>0.27</v>
+      </c>
+      <c r="AQ25" t="n">
+        <v>0.28</v>
+      </c>
+      <c r="AR25" t="n">
+        <v>0.32</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -3268,6 +3848,30 @@
       <c r="AJ26" t="n">
         <v>899.28</v>
       </c>
+      <c r="AK26" t="n">
+        <v>5</v>
+      </c>
+      <c r="AL26" t="n">
+        <v>0.27</v>
+      </c>
+      <c r="AM26" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="AN26" t="n">
+        <v>0.17</v>
+      </c>
+      <c r="AO26" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="AP26" t="n">
+        <v>0.27</v>
+      </c>
+      <c r="AQ26" t="n">
+        <v>0.32</v>
+      </c>
+      <c r="AR26" t="n">
+        <v>0.32</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -3380,6 +3984,30 @@
       <c r="AJ27" t="n">
         <v>899.28</v>
       </c>
+      <c r="AK27" t="n">
+        <v>5</v>
+      </c>
+      <c r="AL27" t="n">
+        <v>0.26</v>
+      </c>
+      <c r="AM27" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="AN27" t="n">
+        <v>0.16</v>
+      </c>
+      <c r="AO27" t="n">
+        <v>0.27</v>
+      </c>
+      <c r="AP27" t="n">
+        <v>0.27</v>
+      </c>
+      <c r="AQ27" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="AR27" t="n">
+        <v>0.32</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -3492,6 +4120,30 @@
       <c r="AJ28" t="n">
         <v>899.28</v>
       </c>
+      <c r="AK28" t="n">
+        <v>5</v>
+      </c>
+      <c r="AL28" t="n">
+        <v>0.27</v>
+      </c>
+      <c r="AM28" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="AN28" t="n">
+        <v>0.17</v>
+      </c>
+      <c r="AO28" t="n">
+        <v>0.27</v>
+      </c>
+      <c r="AP28" t="n">
+        <v>0.27</v>
+      </c>
+      <c r="AQ28" t="n">
+        <v>0.32</v>
+      </c>
+      <c r="AR28" t="n">
+        <v>0.32</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -3604,6 +4256,30 @@
       <c r="AJ29" t="n">
         <v>918.99</v>
       </c>
+      <c r="AK29" t="n">
+        <v>5</v>
+      </c>
+      <c r="AL29" t="n">
+        <v>0.17</v>
+      </c>
+      <c r="AM29" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="AN29" t="n">
+        <v>0.13</v>
+      </c>
+      <c r="AO29" t="n">
+        <v>0.16</v>
+      </c>
+      <c r="AP29" t="n">
+        <v>0.16</v>
+      </c>
+      <c r="AQ29" t="n">
+        <v>0.17</v>
+      </c>
+      <c r="AR29" t="n">
+        <v>0.26</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
@@ -3716,6 +4392,30 @@
       <c r="AJ30" t="n">
         <v>918.99</v>
       </c>
+      <c r="AK30" t="n">
+        <v>5</v>
+      </c>
+      <c r="AL30" t="n">
+        <v>0.16</v>
+      </c>
+      <c r="AM30" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="AN30" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="AO30" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="AP30" t="n">
+        <v>0.17</v>
+      </c>
+      <c r="AQ30" t="n">
+        <v>0.18</v>
+      </c>
+      <c r="AR30" t="n">
+        <v>0.23</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -3828,6 +4528,30 @@
       <c r="AJ31" t="n">
         <v>918.99</v>
       </c>
+      <c r="AK31" t="n">
+        <v>5</v>
+      </c>
+      <c r="AL31" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="AM31" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="AN31" t="n">
+        <v>0.14</v>
+      </c>
+      <c r="AO31" t="n">
+        <v>0.16</v>
+      </c>
+      <c r="AP31" t="n">
+        <v>0.18</v>
+      </c>
+      <c r="AQ31" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="AR31" t="n">
+        <v>0.29</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -3940,6 +4664,30 @@
       <c r="AJ32" t="n">
         <v>918.99</v>
       </c>
+      <c r="AK32" t="n">
+        <v>5</v>
+      </c>
+      <c r="AL32" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="AM32" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="AN32" t="n">
+        <v>0.14</v>
+      </c>
+      <c r="AO32" t="n">
+        <v>0.16</v>
+      </c>
+      <c r="AP32" t="n">
+        <v>0.17</v>
+      </c>
+      <c r="AQ32" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="AR32" t="n">
+        <v>0.31</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -4052,6 +4800,30 @@
       <c r="AJ33" t="n">
         <v>918.99</v>
       </c>
+      <c r="AK33" t="n">
+        <v>5</v>
+      </c>
+      <c r="AL33" t="n">
+        <v>0.21</v>
+      </c>
+      <c r="AM33" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="AN33" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="AO33" t="n">
+        <v>0.17</v>
+      </c>
+      <c r="AP33" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="AQ33" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="AR33" t="n">
+        <v>0.3</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -4164,6 +4936,30 @@
       <c r="AJ34" t="n">
         <v>996.4</v>
       </c>
+      <c r="AK34" t="n">
+        <v>5</v>
+      </c>
+      <c r="AL34" t="n">
+        <v>0.17</v>
+      </c>
+      <c r="AM34" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="AN34" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO34" t="n">
+        <v>0.13</v>
+      </c>
+      <c r="AP34" t="n">
+        <v>0.22</v>
+      </c>
+      <c r="AQ34" t="n">
+        <v>0.23</v>
+      </c>
+      <c r="AR34" t="n">
+        <v>0.25</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -4276,6 +5072,30 @@
       <c r="AJ35" t="n">
         <v>983.14</v>
       </c>
+      <c r="AK35" t="n">
+        <v>5</v>
+      </c>
+      <c r="AL35" t="n">
+        <v>0.19</v>
+      </c>
+      <c r="AM35" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="AN35" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="AO35" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="AP35" t="n">
+        <v>0.24</v>
+      </c>
+      <c r="AQ35" t="n">
+        <v>0.26</v>
+      </c>
+      <c r="AR35" t="n">
+        <v>0.28</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -4388,6 +5208,30 @@
       <c r="AJ36" t="n">
         <v>983.14</v>
       </c>
+      <c r="AK36" t="n">
+        <v>5</v>
+      </c>
+      <c r="AL36" t="n">
+        <v>0.22</v>
+      </c>
+      <c r="AM36" t="n">
+        <v>0.14</v>
+      </c>
+      <c r="AN36" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO36" t="n">
+        <v>0.19</v>
+      </c>
+      <c r="AP36" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="AQ36" t="n">
+        <v>0.32</v>
+      </c>
+      <c r="AR36" t="n">
+        <v>0.36</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -4500,6 +5344,30 @@
       <c r="AJ37" t="n">
         <v>983.14</v>
       </c>
+      <c r="AK37" t="n">
+        <v>5</v>
+      </c>
+      <c r="AL37" t="n">
+        <v>0.21</v>
+      </c>
+      <c r="AM37" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="AN37" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="AO37" t="n">
+        <v>0.19</v>
+      </c>
+      <c r="AP37" t="n">
+        <v>0.24</v>
+      </c>
+      <c r="AQ37" t="n">
+        <v>0.28</v>
+      </c>
+      <c r="AR37" t="n">
+        <v>0.3</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -4612,6 +5480,30 @@
       <c r="AJ38" t="n">
         <v>983.14</v>
       </c>
+      <c r="AK38" t="n">
+        <v>5</v>
+      </c>
+      <c r="AL38" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="AM38" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="AN38" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="AO38" t="n">
+        <v>0.17</v>
+      </c>
+      <c r="AP38" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="AQ38" t="n">
+        <v>0.28</v>
+      </c>
+      <c r="AR38" t="n">
+        <v>0.3</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -4724,6 +5616,30 @@
       <c r="AJ39" t="n">
         <v>1038.94</v>
       </c>
+      <c r="AK39" t="n">
+        <v>5</v>
+      </c>
+      <c r="AL39" t="n">
+        <v>0.14</v>
+      </c>
+      <c r="AM39" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="AN39" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="AO39" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="AP39" t="n">
+        <v>0.14</v>
+      </c>
+      <c r="AQ39" t="n">
+        <v>0.18</v>
+      </c>
+      <c r="AR39" t="n">
+        <v>0.19</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -4836,6 +5752,30 @@
       <c r="AJ40" t="n">
         <v>1038.93</v>
       </c>
+      <c r="AK40" t="n">
+        <v>5</v>
+      </c>
+      <c r="AL40" t="n">
+        <v>0.17</v>
+      </c>
+      <c r="AM40" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="AN40" t="n">
+        <v>0.11</v>
+      </c>
+      <c r="AO40" t="n">
+        <v>0.17</v>
+      </c>
+      <c r="AP40" t="n">
+        <v>0.18</v>
+      </c>
+      <c r="AQ40" t="n">
+        <v>0.19</v>
+      </c>
+      <c r="AR40" t="n">
+        <v>0.22</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -4948,6 +5888,30 @@
       <c r="AJ41" t="n">
         <v>1038.94</v>
       </c>
+      <c r="AK41" t="n">
+        <v>5</v>
+      </c>
+      <c r="AL41" t="n">
+        <v>0.18</v>
+      </c>
+      <c r="AM41" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="AN41" t="n">
+        <v>0.11</v>
+      </c>
+      <c r="AO41" t="n">
+        <v>0.17</v>
+      </c>
+      <c r="AP41" t="n">
+        <v>0.18</v>
+      </c>
+      <c r="AQ41" t="n">
+        <v>0.19</v>
+      </c>
+      <c r="AR41" t="n">
+        <v>0.25</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -5060,6 +6024,30 @@
       <c r="AJ42" t="n">
         <v>1038.93</v>
       </c>
+      <c r="AK42" t="n">
+        <v>5</v>
+      </c>
+      <c r="AL42" t="n">
+        <v>0.19</v>
+      </c>
+      <c r="AM42" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="AN42" t="n">
+        <v>0.13</v>
+      </c>
+      <c r="AO42" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="AP42" t="n">
+        <v>0.17</v>
+      </c>
+      <c r="AQ42" t="n">
+        <v>0.19</v>
+      </c>
+      <c r="AR42" t="n">
+        <v>0.31</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -5172,6 +6160,30 @@
       <c r="AJ43" t="n">
         <v>1038.93</v>
       </c>
+      <c r="AK43" t="n">
+        <v>5</v>
+      </c>
+      <c r="AL43" t="n">
+        <v>0.23</v>
+      </c>
+      <c r="AM43" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="AN43" t="n">
+        <v>0.18</v>
+      </c>
+      <c r="AO43" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="AP43" t="n">
+        <v>0.21</v>
+      </c>
+      <c r="AQ43" t="n">
+        <v>0.26</v>
+      </c>
+      <c r="AR43" t="n">
+        <v>0.28</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -5284,6 +6296,30 @@
       <c r="AJ44" t="n">
         <v>1258.18</v>
       </c>
+      <c r="AK44" t="n">
+        <v>5</v>
+      </c>
+      <c r="AL44" t="n">
+        <v>0.11</v>
+      </c>
+      <c r="AM44" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="AN44" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="AO44" t="n">
+        <v>0.11</v>
+      </c>
+      <c r="AP44" t="n">
+        <v>0.11</v>
+      </c>
+      <c r="AQ44" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="AR44" t="n">
+        <v>0.19</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -5396,6 +6432,30 @@
       <c r="AJ45" t="n">
         <v>1258.18</v>
       </c>
+      <c r="AK45" t="n">
+        <v>5</v>
+      </c>
+      <c r="AL45" t="n">
+        <v>0.16</v>
+      </c>
+      <c r="AM45" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="AN45" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="AO45" t="n">
+        <v>0.13</v>
+      </c>
+      <c r="AP45" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="AQ45" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="AR45" t="n">
+        <v>0.26</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -5508,6 +6568,30 @@
       <c r="AJ46" t="n">
         <v>1258.18</v>
       </c>
+      <c r="AK46" t="n">
+        <v>5</v>
+      </c>
+      <c r="AL46" t="n">
+        <v>0.16</v>
+      </c>
+      <c r="AM46" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="AN46" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="AO46" t="n">
+        <v>0.11</v>
+      </c>
+      <c r="AP46" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="AQ46" t="n">
+        <v>0.16</v>
+      </c>
+      <c r="AR46" t="n">
+        <v>0.32</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
@@ -5620,6 +6704,30 @@
       <c r="AJ47" t="n">
         <v>1258.18</v>
       </c>
+      <c r="AK47" t="n">
+        <v>5</v>
+      </c>
+      <c r="AL47" t="n">
+        <v>0.14</v>
+      </c>
+      <c r="AM47" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="AN47" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="AO47" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="AP47" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="AQ47" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="AR47" t="n">
+        <v>0.28</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
@@ -5732,6 +6840,30 @@
       <c r="AJ48" t="n">
         <v>1258.18</v>
       </c>
+      <c r="AK48" t="n">
+        <v>5</v>
+      </c>
+      <c r="AL48" t="n">
+        <v>0.18</v>
+      </c>
+      <c r="AM48" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="AN48" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="AO48" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="AP48" t="n">
+        <v>0.22</v>
+      </c>
+      <c r="AQ48" t="n">
+        <v>0.29</v>
+      </c>
+      <c r="AR48" t="n">
+        <v>0.29</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
@@ -5844,6 +6976,30 @@
       <c r="AJ49" t="n">
         <v>984.4299999999999</v>
       </c>
+      <c r="AK49" t="n">
+        <v>5</v>
+      </c>
+      <c r="AL49" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="AM49" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="AN49" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO49" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP49" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ49" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="AR49" t="n">
+        <v>0.09</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -5956,6 +7112,30 @@
       <c r="AJ50" t="n">
         <v>984.4299999999999</v>
       </c>
+      <c r="AK50" t="n">
+        <v>5</v>
+      </c>
+      <c r="AL50" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="AM50" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="AN50" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO50" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP50" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="AQ50" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="AR50" t="n">
+        <v>0.2</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -6068,6 +7248,30 @@
       <c r="AJ51" t="n">
         <v>984.4299999999999</v>
       </c>
+      <c r="AK51" t="n">
+        <v>5</v>
+      </c>
+      <c r="AL51" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="AM51" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="AN51" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO51" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP51" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ51" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR51" t="n">
+        <v>0.14</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -6180,6 +7384,30 @@
       <c r="AJ52" t="n">
         <v>984.4299999999999</v>
       </c>
+      <c r="AK52" t="n">
+        <v>5</v>
+      </c>
+      <c r="AL52" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="AM52" t="n">
+        <v>0.11</v>
+      </c>
+      <c r="AN52" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO52" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP52" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ52" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="AR52" t="n">
+        <v>0.24</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
@@ -6292,6 +7520,30 @@
       <c r="AJ53" t="n">
         <v>984.4299999999999</v>
       </c>
+      <c r="AK53" t="n">
+        <v>5</v>
+      </c>
+      <c r="AL53" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="AM53" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="AN53" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO53" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="AP53" t="n">
+        <v>0.13</v>
+      </c>
+      <c r="AQ53" t="n">
+        <v>0.14</v>
+      </c>
+      <c r="AR53" t="n">
+        <v>0.17</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -6404,6 +7656,30 @@
       <c r="AJ54" t="n">
         <v>1065.36</v>
       </c>
+      <c r="AK54" t="n">
+        <v>5</v>
+      </c>
+      <c r="AL54" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM54" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN54" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO54" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP54" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ54" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR54" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
@@ -6516,6 +7792,30 @@
       <c r="AJ55" t="n">
         <v>1061.01</v>
       </c>
+      <c r="AK55" t="n">
+        <v>5</v>
+      </c>
+      <c r="AL55" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="AM55" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="AN55" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO55" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP55" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ55" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR55" t="n">
+        <v>0.07000000000000001</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
@@ -6628,6 +7928,30 @@
       <c r="AJ56" t="n">
         <v>1061.01</v>
       </c>
+      <c r="AK56" t="n">
+        <v>5</v>
+      </c>
+      <c r="AL56" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="AM56" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="AN56" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO56" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP56" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ56" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR56" t="n">
+        <v>0.09</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -6740,6 +8064,30 @@
       <c r="AJ57" t="n">
         <v>1061.01</v>
       </c>
+      <c r="AK57" t="n">
+        <v>5</v>
+      </c>
+      <c r="AL57" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="AM57" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="AN57" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO57" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP57" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ57" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR57" t="n">
+        <v>0.1</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
@@ -6852,6 +8200,30 @@
       <c r="AJ58" t="n">
         <v>1061.01</v>
       </c>
+      <c r="AK58" t="n">
+        <v>5</v>
+      </c>
+      <c r="AL58" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM58" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="AN58" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO58" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP58" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ58" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR58" t="n">
+        <v>0.01</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -6964,6 +8336,30 @@
       <c r="AJ59" t="n">
         <v>530.41</v>
       </c>
+      <c r="AK59" t="n">
+        <v>5</v>
+      </c>
+      <c r="AL59" t="n">
+        <v>0.14</v>
+      </c>
+      <c r="AM59" t="n">
+        <v>0.11</v>
+      </c>
+      <c r="AN59" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="AO59" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="AP59" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="AQ59" t="n">
+        <v>0.13</v>
+      </c>
+      <c r="AR59" t="n">
+        <v>0.33</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
@@ -7076,6 +8472,30 @@
       <c r="AJ60" t="n">
         <v>530.41</v>
       </c>
+      <c r="AK60" t="n">
+        <v>5</v>
+      </c>
+      <c r="AL60" t="n">
+        <v>0.17</v>
+      </c>
+      <c r="AM60" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="AN60" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="AO60" t="n">
+        <v>0.13</v>
+      </c>
+      <c r="AP60" t="n">
+        <v>0.14</v>
+      </c>
+      <c r="AQ60" t="n">
+        <v>0.16</v>
+      </c>
+      <c r="AR60" t="n">
+        <v>0.33</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -7188,6 +8608,30 @@
       <c r="AJ61" t="n">
         <v>530.41</v>
       </c>
+      <c r="AK61" t="n">
+        <v>5</v>
+      </c>
+      <c r="AL61" t="n">
+        <v>0.17</v>
+      </c>
+      <c r="AM61" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="AN61" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="AO61" t="n">
+        <v>0.14</v>
+      </c>
+      <c r="AP61" t="n">
+        <v>0.14</v>
+      </c>
+      <c r="AQ61" t="n">
+        <v>0.16</v>
+      </c>
+      <c r="AR61" t="n">
+        <v>0.33</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -7300,6 +8744,30 @@
       <c r="AJ62" t="n">
         <v>530.41</v>
       </c>
+      <c r="AK62" t="n">
+        <v>5</v>
+      </c>
+      <c r="AL62" t="n">
+        <v>0.17</v>
+      </c>
+      <c r="AM62" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="AN62" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="AO62" t="n">
+        <v>0.14</v>
+      </c>
+      <c r="AP62" t="n">
+        <v>0.14</v>
+      </c>
+      <c r="AQ62" t="n">
+        <v>0.16</v>
+      </c>
+      <c r="AR62" t="n">
+        <v>0.33</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -7412,6 +8880,30 @@
       <c r="AJ63" t="n">
         <v>530.41</v>
       </c>
+      <c r="AK63" t="n">
+        <v>5</v>
+      </c>
+      <c r="AL63" t="n">
+        <v>0.17</v>
+      </c>
+      <c r="AM63" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="AN63" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="AO63" t="n">
+        <v>0.14</v>
+      </c>
+      <c r="AP63" t="n">
+        <v>0.14</v>
+      </c>
+      <c r="AQ63" t="n">
+        <v>0.16</v>
+      </c>
+      <c r="AR63" t="n">
+        <v>0.33</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
@@ -7524,6 +9016,30 @@
       <c r="AJ64" t="n">
         <v>727.49</v>
       </c>
+      <c r="AK64" t="n">
+        <v>5</v>
+      </c>
+      <c r="AL64" t="n">
+        <v>0.19</v>
+      </c>
+      <c r="AM64" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="AN64" t="n">
+        <v>0.14</v>
+      </c>
+      <c r="AO64" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="AP64" t="n">
+        <v>0.18</v>
+      </c>
+      <c r="AQ64" t="n">
+        <v>0.24</v>
+      </c>
+      <c r="AR64" t="n">
+        <v>0.27</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
@@ -7636,6 +9152,30 @@
       <c r="AJ65" t="n">
         <v>727.49</v>
       </c>
+      <c r="AK65" t="n">
+        <v>5</v>
+      </c>
+      <c r="AL65" t="n">
+        <v>0.22</v>
+      </c>
+      <c r="AM65" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="AN65" t="n">
+        <v>0.17</v>
+      </c>
+      <c r="AO65" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="AP65" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="AQ65" t="n">
+        <v>0.24</v>
+      </c>
+      <c r="AR65" t="n">
+        <v>0.29</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
@@ -7748,6 +9288,30 @@
       <c r="AJ66" t="n">
         <v>727.49</v>
       </c>
+      <c r="AK66" t="n">
+        <v>5</v>
+      </c>
+      <c r="AL66" t="n">
+        <v>0.24</v>
+      </c>
+      <c r="AM66" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="AN66" t="n">
+        <v>0.17</v>
+      </c>
+      <c r="AO66" t="n">
+        <v>0.23</v>
+      </c>
+      <c r="AP66" t="n">
+        <v>0.24</v>
+      </c>
+      <c r="AQ66" t="n">
+        <v>0.24</v>
+      </c>
+      <c r="AR66" t="n">
+        <v>0.29</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
@@ -7860,6 +9424,30 @@
       <c r="AJ67" t="n">
         <v>727.49</v>
       </c>
+      <c r="AK67" t="n">
+        <v>5</v>
+      </c>
+      <c r="AL67" t="n">
+        <v>0.24</v>
+      </c>
+      <c r="AM67" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="AN67" t="n">
+        <v>0.18</v>
+      </c>
+      <c r="AO67" t="n">
+        <v>0.23</v>
+      </c>
+      <c r="AP67" t="n">
+        <v>0.24</v>
+      </c>
+      <c r="AQ67" t="n">
+        <v>0.24</v>
+      </c>
+      <c r="AR67" t="n">
+        <v>0.29</v>
+      </c>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -7972,6 +9560,30 @@
       <c r="AJ68" t="n">
         <v>727.49</v>
       </c>
+      <c r="AK68" t="n">
+        <v>5</v>
+      </c>
+      <c r="AL68" t="n">
+        <v>0.24</v>
+      </c>
+      <c r="AM68" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="AN68" t="n">
+        <v>0.17</v>
+      </c>
+      <c r="AO68" t="n">
+        <v>0.23</v>
+      </c>
+      <c r="AP68" t="n">
+        <v>0.24</v>
+      </c>
+      <c r="AQ68" t="n">
+        <v>0.24</v>
+      </c>
+      <c r="AR68" t="n">
+        <v>0.29</v>
+      </c>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
@@ -8084,6 +9696,30 @@
       <c r="AJ69" t="n">
         <v>750.87</v>
       </c>
+      <c r="AK69" t="n">
+        <v>5</v>
+      </c>
+      <c r="AL69" t="n">
+        <v>0.19</v>
+      </c>
+      <c r="AM69" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="AN69" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="AO69" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="AP69" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="AQ69" t="n">
+        <v>0.27</v>
+      </c>
+      <c r="AR69" t="n">
+        <v>0.36</v>
+      </c>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -8196,6 +9832,30 @@
       <c r="AJ70" t="n">
         <v>750.87</v>
       </c>
+      <c r="AK70" t="n">
+        <v>5</v>
+      </c>
+      <c r="AL70" t="n">
+        <v>0.22</v>
+      </c>
+      <c r="AM70" t="n">
+        <v>0.11</v>
+      </c>
+      <c r="AN70" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="AO70" t="n">
+        <v>0.16</v>
+      </c>
+      <c r="AP70" t="n">
+        <v>0.17</v>
+      </c>
+      <c r="AQ70" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="AR70" t="n">
+        <v>0.37</v>
+      </c>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -8308,6 +9968,30 @@
       <c r="AJ71" t="n">
         <v>750.87</v>
       </c>
+      <c r="AK71" t="n">
+        <v>5</v>
+      </c>
+      <c r="AL71" t="n">
+        <v>0.23</v>
+      </c>
+      <c r="AM71" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="AN71" t="n">
+        <v>0.13</v>
+      </c>
+      <c r="AO71" t="n">
+        <v>0.16</v>
+      </c>
+      <c r="AP71" t="n">
+        <v>0.17</v>
+      </c>
+      <c r="AQ71" t="n">
+        <v>0.31</v>
+      </c>
+      <c r="AR71" t="n">
+        <v>0.37</v>
+      </c>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
@@ -8420,6 +10104,30 @@
       <c r="AJ72" t="n">
         <v>750.87</v>
       </c>
+      <c r="AK72" t="n">
+        <v>5</v>
+      </c>
+      <c r="AL72" t="n">
+        <v>0.24</v>
+      </c>
+      <c r="AM72" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="AN72" t="n">
+        <v>0.16</v>
+      </c>
+      <c r="AO72" t="n">
+        <v>0.18</v>
+      </c>
+      <c r="AP72" t="n">
+        <v>0.18</v>
+      </c>
+      <c r="AQ72" t="n">
+        <v>0.31</v>
+      </c>
+      <c r="AR72" t="n">
+        <v>0.37</v>
+      </c>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -8532,6 +10240,30 @@
       <c r="AJ73" t="n">
         <v>750.87</v>
       </c>
+      <c r="AK73" t="n">
+        <v>5</v>
+      </c>
+      <c r="AL73" t="n">
+        <v>0.24</v>
+      </c>
+      <c r="AM73" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="AN73" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="AO73" t="n">
+        <v>0.18</v>
+      </c>
+      <c r="AP73" t="n">
+        <v>0.18</v>
+      </c>
+      <c r="AQ73" t="n">
+        <v>0.32</v>
+      </c>
+      <c r="AR73" t="n">
+        <v>0.37</v>
+      </c>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -8644,6 +10376,30 @@
       <c r="AJ74" t="n">
         <v>761.2</v>
       </c>
+      <c r="AK74" t="n">
+        <v>5</v>
+      </c>
+      <c r="AL74" t="n">
+        <v>0.17</v>
+      </c>
+      <c r="AM74" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="AN74" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="AO74" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="AP74" t="n">
+        <v>0.16</v>
+      </c>
+      <c r="AQ74" t="n">
+        <v>0.21</v>
+      </c>
+      <c r="AR74" t="n">
+        <v>0.26</v>
+      </c>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -8756,6 +10512,30 @@
       <c r="AJ75" t="n">
         <v>761.2</v>
       </c>
+      <c r="AK75" t="n">
+        <v>5</v>
+      </c>
+      <c r="AL75" t="n">
+        <v>0.18</v>
+      </c>
+      <c r="AM75" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="AN75" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="AO75" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="AP75" t="n">
+        <v>0.17</v>
+      </c>
+      <c r="AQ75" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="AR75" t="n">
+        <v>0.28</v>
+      </c>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -8868,6 +10648,30 @@
       <c r="AJ76" t="n">
         <v>761.2</v>
       </c>
+      <c r="AK76" t="n">
+        <v>5</v>
+      </c>
+      <c r="AL76" t="n">
+        <v>0.19</v>
+      </c>
+      <c r="AM76" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="AN76" t="n">
+        <v>0.11</v>
+      </c>
+      <c r="AO76" t="n">
+        <v>0.16</v>
+      </c>
+      <c r="AP76" t="n">
+        <v>0.17</v>
+      </c>
+      <c r="AQ76" t="n">
+        <v>0.24</v>
+      </c>
+      <c r="AR76" t="n">
+        <v>0.25</v>
+      </c>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
@@ -8980,6 +10784,30 @@
       <c r="AJ77" t="n">
         <v>761.2</v>
       </c>
+      <c r="AK77" t="n">
+        <v>5</v>
+      </c>
+      <c r="AL77" t="n">
+        <v>0.21</v>
+      </c>
+      <c r="AM77" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="AN77" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="AO77" t="n">
+        <v>0.16</v>
+      </c>
+      <c r="AP77" t="n">
+        <v>0.22</v>
+      </c>
+      <c r="AQ77" t="n">
+        <v>0.26</v>
+      </c>
+      <c r="AR77" t="n">
+        <v>0.31</v>
+      </c>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -9092,6 +10920,30 @@
       <c r="AJ78" t="n">
         <v>761.2</v>
       </c>
+      <c r="AK78" t="n">
+        <v>5</v>
+      </c>
+      <c r="AL78" t="n">
+        <v>0.21</v>
+      </c>
+      <c r="AM78" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="AN78" t="n">
+        <v>0.13</v>
+      </c>
+      <c r="AO78" t="n">
+        <v>0.14</v>
+      </c>
+      <c r="AP78" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="AQ78" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="AR78" t="n">
+        <v>0.32</v>
+      </c>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
@@ -9204,6 +11056,30 @@
       <c r="AJ79" t="n">
         <v>897.67</v>
       </c>
+      <c r="AK79" t="n">
+        <v>5</v>
+      </c>
+      <c r="AL79" t="n">
+        <v>0.11</v>
+      </c>
+      <c r="AM79" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="AN79" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="AO79" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="AP79" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="AQ79" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="AR79" t="n">
+        <v>0.18</v>
+      </c>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -9316,6 +11192,30 @@
       <c r="AJ80" t="n">
         <v>893.73</v>
       </c>
+      <c r="AK80" t="n">
+        <v>5</v>
+      </c>
+      <c r="AL80" t="n">
+        <v>0.14</v>
+      </c>
+      <c r="AM80" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="AN80" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="AO80" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="AP80" t="n">
+        <v>0.11</v>
+      </c>
+      <c r="AQ80" t="n">
+        <v>0.14</v>
+      </c>
+      <c r="AR80" t="n">
+        <v>0.23</v>
+      </c>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
@@ -9428,6 +11328,30 @@
       <c r="AJ81" t="n">
         <v>893.73</v>
       </c>
+      <c r="AK81" t="n">
+        <v>5</v>
+      </c>
+      <c r="AL81" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="AM81" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="AN81" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="AO81" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="AP81" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="AQ81" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="AR81" t="n">
+        <v>0.24</v>
+      </c>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
@@ -9540,6 +11464,30 @@
       <c r="AJ82" t="n">
         <v>893.73</v>
       </c>
+      <c r="AK82" t="n">
+        <v>5</v>
+      </c>
+      <c r="AL82" t="n">
+        <v>0.14</v>
+      </c>
+      <c r="AM82" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="AN82" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="AO82" t="n">
+        <v>0.13</v>
+      </c>
+      <c r="AP82" t="n">
+        <v>0.14</v>
+      </c>
+      <c r="AQ82" t="n">
+        <v>0.19</v>
+      </c>
+      <c r="AR82" t="n">
+        <v>0.22</v>
+      </c>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
@@ -9652,6 +11600,30 @@
       <c r="AJ83" t="n">
         <v>893.73</v>
       </c>
+      <c r="AK83" t="n">
+        <v>5</v>
+      </c>
+      <c r="AL83" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="AM83" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="AN83" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="AO83" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="AP83" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="AQ83" t="n">
+        <v>0.17</v>
+      </c>
+      <c r="AR83" t="n">
+        <v>0.22</v>
+      </c>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -9764,6 +11736,30 @@
       <c r="AJ84" t="n">
         <v>940.97</v>
       </c>
+      <c r="AK84" t="n">
+        <v>5</v>
+      </c>
+      <c r="AL84" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="AM84" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="AN84" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="AO84" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="AP84" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="AQ84" t="n">
+        <v>0.11</v>
+      </c>
+      <c r="AR84" t="n">
+        <v>0.18</v>
+      </c>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -9876,6 +11872,30 @@
       <c r="AJ85" t="n">
         <v>930.6799999999999</v>
       </c>
+      <c r="AK85" t="n">
+        <v>5</v>
+      </c>
+      <c r="AL85" t="n">
+        <v>0.11</v>
+      </c>
+      <c r="AM85" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="AN85" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="AO85" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="AP85" t="n">
+        <v>0.11</v>
+      </c>
+      <c r="AQ85" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="AR85" t="n">
+        <v>0.18</v>
+      </c>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -9988,6 +12008,30 @@
       <c r="AJ86" t="n">
         <v>931.22</v>
       </c>
+      <c r="AK86" t="n">
+        <v>5</v>
+      </c>
+      <c r="AL86" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="AM86" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="AN86" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="AO86" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="AP86" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="AQ86" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="AR86" t="n">
+        <v>0.11</v>
+      </c>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -10100,6 +12144,30 @@
       <c r="AJ87" t="n">
         <v>932.65</v>
       </c>
+      <c r="AK87" t="n">
+        <v>5</v>
+      </c>
+      <c r="AL87" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="AM87" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="AN87" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="AO87" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="AP87" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="AQ87" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="AR87" t="n">
+        <v>0.15</v>
+      </c>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -10212,6 +12280,30 @@
       <c r="AJ88" t="n">
         <v>927.77</v>
       </c>
+      <c r="AK88" t="n">
+        <v>5</v>
+      </c>
+      <c r="AL88" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="AM88" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="AN88" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="AO88" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="AP88" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="AQ88" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="AR88" t="n">
+        <v>0.1</v>
+      </c>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -10324,6 +12416,30 @@
       <c r="AJ89" t="n">
         <v>972.52</v>
       </c>
+      <c r="AK89" t="n">
+        <v>5</v>
+      </c>
+      <c r="AL89" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="AM89" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="AN89" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO89" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP89" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ89" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="AR89" t="n">
+        <v>0.03</v>
+      </c>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -10436,6 +12552,30 @@
       <c r="AJ90" t="n">
         <v>974.34</v>
       </c>
+      <c r="AK90" t="n">
+        <v>5</v>
+      </c>
+      <c r="AL90" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="AM90" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="AN90" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO90" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP90" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="AQ90" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="AR90" t="n">
+        <v>0.03</v>
+      </c>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -10548,6 +12688,30 @@
       <c r="AJ91" t="n">
         <v>974.46</v>
       </c>
+      <c r="AK91" t="n">
+        <v>5</v>
+      </c>
+      <c r="AL91" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="AM91" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="AN91" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO91" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP91" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ91" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="AR91" t="n">
+        <v>0.03</v>
+      </c>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -10660,6 +12824,30 @@
       <c r="AJ92" t="n">
         <v>970.58</v>
       </c>
+      <c r="AK92" t="n">
+        <v>5</v>
+      </c>
+      <c r="AL92" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="AM92" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="AN92" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO92" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP92" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="AQ92" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="AR92" t="n">
+        <v>0.04</v>
+      </c>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -10772,6 +12960,30 @@
       <c r="AJ93" t="n">
         <v>972.03</v>
       </c>
+      <c r="AK93" t="n">
+        <v>5</v>
+      </c>
+      <c r="AL93" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="AM93" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="AN93" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO93" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP93" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ93" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="AR93" t="n">
+        <v>0.02</v>
+      </c>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
@@ -10884,6 +13096,30 @@
       <c r="AJ94" t="n">
         <v>1109.38</v>
       </c>
+      <c r="AK94" t="n">
+        <v>5</v>
+      </c>
+      <c r="AL94" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="AM94" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="AN94" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO94" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="AP94" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="AQ94" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="AR94" t="n">
+        <v>0.12</v>
+      </c>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -10996,6 +13232,30 @@
       <c r="AJ95" t="n">
         <v>1107.88</v>
       </c>
+      <c r="AK95" t="n">
+        <v>5</v>
+      </c>
+      <c r="AL95" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="AM95" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="AN95" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO95" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="AP95" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="AQ95" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="AR95" t="n">
+        <v>0.07000000000000001</v>
+      </c>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -11108,6 +13368,30 @@
       <c r="AJ96" t="n">
         <v>1107.26</v>
       </c>
+      <c r="AK96" t="n">
+        <v>5</v>
+      </c>
+      <c r="AL96" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="AM96" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="AN96" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO96" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP96" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="AQ96" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="AR96" t="n">
+        <v>0.07000000000000001</v>
+      </c>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -11220,6 +13504,30 @@
       <c r="AJ97" t="n">
         <v>1108.48</v>
       </c>
+      <c r="AK97" t="n">
+        <v>5</v>
+      </c>
+      <c r="AL97" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="AM97" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="AN97" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO97" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="AP97" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="AQ97" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="AR97" t="n">
+        <v>0.07000000000000001</v>
+      </c>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
@@ -11332,6 +13640,30 @@
       <c r="AJ98" t="n">
         <v>1108.48</v>
       </c>
+      <c r="AK98" t="n">
+        <v>5</v>
+      </c>
+      <c r="AL98" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="AM98" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="AN98" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="AO98" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="AP98" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="AQ98" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="AR98" t="n">
+        <v>0.07000000000000001</v>
+      </c>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
@@ -11444,6 +13776,30 @@
       <c r="AJ99" t="n">
         <v>1053.67</v>
       </c>
+      <c r="AK99" t="n">
+        <v>5</v>
+      </c>
+      <c r="AL99" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM99" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="AN99" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO99" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP99" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ99" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR99" t="n">
+        <v>0.02</v>
+      </c>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -11556,6 +13912,30 @@
       <c r="AJ100" t="n">
         <v>1049.67</v>
       </c>
+      <c r="AK100" t="n">
+        <v>5</v>
+      </c>
+      <c r="AL100" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="AM100" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="AN100" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO100" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP100" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ100" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="AR100" t="n">
+        <v>0.06</v>
+      </c>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
@@ -11668,6 +14048,30 @@
       <c r="AJ101" t="n">
         <v>1044.66</v>
       </c>
+      <c r="AK101" t="n">
+        <v>5</v>
+      </c>
+      <c r="AL101" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM101" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN101" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO101" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP101" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ101" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR101" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
@@ -11780,6 +14184,30 @@
       <c r="AJ102" t="n">
         <v>1042.23</v>
       </c>
+      <c r="AK102" t="n">
+        <v>5</v>
+      </c>
+      <c r="AL102" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM102" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN102" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO102" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP102" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ102" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR102" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
@@ -11892,6 +14320,30 @@
       <c r="AJ103" t="n">
         <v>1048.93</v>
       </c>
+      <c r="AK103" t="n">
+        <v>5</v>
+      </c>
+      <c r="AL103" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="AM103" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="AN103" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO103" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP103" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ103" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="AR103" t="n">
+        <v>0.05</v>
+      </c>
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
@@ -12004,6 +14456,30 @@
       <c r="AJ104" t="n">
         <v>1082.55</v>
       </c>
+      <c r="AK104" t="n">
+        <v>5</v>
+      </c>
+      <c r="AL104" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="AM104" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="AN104" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO104" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP104" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ104" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR104" t="n">
+        <v>0.02</v>
+      </c>
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
@@ -12116,6 +14592,30 @@
       <c r="AJ105" t="n">
         <v>1081.58</v>
       </c>
+      <c r="AK105" t="n">
+        <v>5</v>
+      </c>
+      <c r="AL105" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="AM105" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="AN105" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO105" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP105" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ105" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="AR105" t="n">
+        <v>0.02</v>
+      </c>
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
@@ -12228,6 +14728,30 @@
       <c r="AJ106" t="n">
         <v>1075.16</v>
       </c>
+      <c r="AK106" t="n">
+        <v>5</v>
+      </c>
+      <c r="AL106" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM106" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="AN106" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO106" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP106" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ106" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR106" t="n">
+        <v>0.01</v>
+      </c>
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
@@ -12340,6 +14864,30 @@
       <c r="AJ107" t="n">
         <v>1075.16</v>
       </c>
+      <c r="AK107" t="n">
+        <v>5</v>
+      </c>
+      <c r="AL107" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM107" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN107" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO107" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP107" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ107" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR107" t="n">
+        <v>0.01</v>
+      </c>
     </row>
     <row r="108">
       <c r="A108" s="1" t="n">
@@ -12452,6 +15000,30 @@
       <c r="AJ108" t="n">
         <v>1073.93</v>
       </c>
+      <c r="AK108" t="n">
+        <v>5</v>
+      </c>
+      <c r="AL108" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="AM108" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="AN108" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO108" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP108" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="AQ108" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="AR108" t="n">
+        <v>0.01</v>
+      </c>
     </row>
     <row r="109">
       <c r="A109" s="1" t="n">
@@ -12564,6 +15136,30 @@
       <c r="AJ109" t="n">
         <v>1161.5</v>
       </c>
+      <c r="AK109" t="n">
+        <v>5</v>
+      </c>
+      <c r="AL109" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM109" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN109" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO109" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP109" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ109" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR109" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="110">
       <c r="A110" s="1" t="n">
@@ -12676,6 +15272,30 @@
       <c r="AJ110" t="n">
         <v>1162.45</v>
       </c>
+      <c r="AK110" t="n">
+        <v>5</v>
+      </c>
+      <c r="AL110" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM110" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN110" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO110" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP110" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ110" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR110" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="111">
       <c r="A111" s="1" t="n">
@@ -12788,6 +15408,30 @@
       <c r="AJ111" t="n">
         <v>1155.59</v>
       </c>
+      <c r="AK111" t="n">
+        <v>5</v>
+      </c>
+      <c r="AL111" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM111" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN111" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO111" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP111" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ111" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR111" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="112">
       <c r="A112" s="1" t="n">
@@ -12900,6 +15544,30 @@
       <c r="AJ112" t="n">
         <v>1150.3</v>
       </c>
+      <c r="AK112" t="n">
+        <v>5</v>
+      </c>
+      <c r="AL112" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM112" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN112" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO112" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP112" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ112" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR112" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="113">
       <c r="A113" s="1" t="n">
@@ -13012,252 +15680,39 @@
       <c r="AJ113" t="n">
         <v>1163.75</v>
       </c>
+      <c r="AK113" t="n">
+        <v>5</v>
+      </c>
+      <c r="AL113" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM113" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN113" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO113" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP113" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ113" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR113" t="n">
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="4">
+  <mergeCells count="5">
     <mergeCell ref="E1:L1"/>
     <mergeCell ref="M1:T1"/>
     <mergeCell ref="U1:AB1"/>
     <mergeCell ref="AC1:AJ1"/>
+    <mergeCell ref="AK1:AR1"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
-</file>
-
-<file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x010100CC872E1270CB784E9B98D50896A839F6" ma:contentTypeVersion="11" ma:contentTypeDescription="Crear nuevo documento." ma:contentTypeScope="" ma:versionID="b9b2a30e095b2a99c7a4efd6f687c21a">
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="116ddbad-b67c-4622-b846-55da43670eb8" xmlns:ns3="0838a0db-6cb4-4fef-a3f8-577e3ea6a4fe" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="ae991ae10615842d01d4ebb88da5dac4" ns2:_="" ns3:_="">
-    <xsd:import namespace="116ddbad-b67c-4622-b846-55da43670eb8"/>
-    <xsd:import namespace="0838a0db-6cb4-4fef-a3f8-577e3ea6a4fe"/>
-    <xsd:element name="properties">
-      <xsd:complexType>
-        <xsd:sequence>
-          <xsd:element name="documentManagement">
-            <xsd:complexType>
-              <xsd:all>
-                <xsd:element ref="ns2:MediaServiceMetadata" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceFastMetadata" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceAutoTags" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceOCR" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceGenerationTime" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceEventHashCode" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceAutoKeyPoints" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceKeyPoints" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceDateTaken" minOccurs="0"/>
-                <xsd:element ref="ns3:SharedWithUsers" minOccurs="0"/>
-                <xsd:element ref="ns3:SharedWithDetails" minOccurs="0"/>
-              </xsd:all>
-            </xsd:complexType>
-          </xsd:element>
-        </xsd:sequence>
-      </xsd:complexType>
-    </xsd:element>
-  </xsd:schema>
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="116ddbad-b67c-4622-b846-55da43670eb8" elementFormDefault="qualified">
-    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <xsd:element name="MediaServiceMetadata" ma:index="8" nillable="true" ma:displayName="MediaServiceMetadata" ma:hidden="true" ma:internalName="MediaServiceMetadata" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceFastMetadata" ma:index="9" nillable="true" ma:displayName="MediaServiceFastMetadata" ma:hidden="true" ma:internalName="MediaServiceFastMetadata" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceAutoTags" ma:index="10" nillable="true" ma:displayName="Tags" ma:internalName="MediaServiceAutoTags" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Text"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceOCR" ma:index="11" nillable="true" ma:displayName="Extracted Text" ma:internalName="MediaServiceOCR" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note">
-          <xsd:maxLength value="255"/>
-        </xsd:restriction>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceGenerationTime" ma:index="12" nillable="true" ma:displayName="MediaServiceGenerationTime" ma:hidden="true" ma:internalName="MediaServiceGenerationTime" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Text"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceEventHashCode" ma:index="13" nillable="true" ma:displayName="MediaServiceEventHashCode" ma:hidden="true" ma:internalName="MediaServiceEventHashCode" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Text"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceAutoKeyPoints" ma:index="14" nillable="true" ma:displayName="MediaServiceAutoKeyPoints" ma:hidden="true" ma:internalName="MediaServiceAutoKeyPoints" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceKeyPoints" ma:index="15" nillable="true" ma:displayName="KeyPoints" ma:internalName="MediaServiceKeyPoints" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note">
-          <xsd:maxLength value="255"/>
-        </xsd:restriction>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceDateTaken" ma:index="16" nillable="true" ma:displayName="MediaServiceDateTaken" ma:hidden="true" ma:internalName="MediaServiceDateTaken" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Text"/>
-      </xsd:simpleType>
-    </xsd:element>
-  </xsd:schema>
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="0838a0db-6cb4-4fef-a3f8-577e3ea6a4fe" elementFormDefault="qualified">
-    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <xsd:element name="SharedWithUsers" ma:index="17" nillable="true" ma:displayName="Compartido con" ma:internalName="SharedWithUsers" ma:readOnly="true">
-      <xsd:complexType>
-        <xsd:complexContent>
-          <xsd:extension base="dms:UserMulti">
-            <xsd:sequence>
-              <xsd:element name="UserInfo" minOccurs="0" maxOccurs="unbounded">
-                <xsd:complexType>
-                  <xsd:sequence>
-                    <xsd:element name="DisplayName" type="xsd:string" minOccurs="0"/>
-                    <xsd:element name="AccountId" type="dms:UserId" minOccurs="0" nillable="true"/>
-                    <xsd:element name="AccountType" type="xsd:string" minOccurs="0"/>
-                  </xsd:sequence>
-                </xsd:complexType>
-              </xsd:element>
-            </xsd:sequence>
-          </xsd:extension>
-        </xsd:complexContent>
-      </xsd:complexType>
-    </xsd:element>
-    <xsd:element name="SharedWithDetails" ma:index="18" nillable="true" ma:displayName="Detalles de uso compartido" ma:internalName="SharedWithDetails" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note">
-          <xsd:maxLength value="255"/>
-        </xsd:restriction>
-      </xsd:simpleType>
-    </xsd:element>
-  </xsd:schema>
-  <xsd:schema xmlns="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:dc="http://purl.org/dc/elements/1.1/" xmlns:dcterms="http://purl.org/dc/terms/" xmlns:odoc="http://schemas.microsoft.com/internal/obd" targetNamespace="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" elementFormDefault="qualified" attributeFormDefault="unqualified" blockDefault="#all">
-    <xsd:import namespace="http://purl.org/dc/elements/1.1/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dc.xsd"/>
-    <xsd:import namespace="http://purl.org/dc/terms/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dcterms.xsd"/>
-    <xsd:element name="coreProperties" type="CT_coreProperties"/>
-    <xsd:complexType name="CT_coreProperties">
-      <xsd:all>
-        <xsd:element ref="dc:creator" minOccurs="0" maxOccurs="1"/>
-        <xsd:element ref="dcterms:created" minOccurs="0" maxOccurs="1"/>
-        <xsd:element ref="dc:identifier" minOccurs="0" maxOccurs="1"/>
-        <xsd:element name="contentType" minOccurs="0" maxOccurs="1" type="xsd:string" ma:index="0" ma:displayName="Tipo de contenido"/>
-        <xsd:element ref="dc:title" minOccurs="0" maxOccurs="1" ma:index="4" ma:displayName="Título"/>
-        <xsd:element ref="dc:subject" minOccurs="0" maxOccurs="1"/>
-        <xsd:element ref="dc:description" minOccurs="0" maxOccurs="1"/>
-        <xsd:element name="keywords" minOccurs="0" maxOccurs="1" type="xsd:string"/>
-        <xsd:element ref="dc:language" minOccurs="0" maxOccurs="1"/>
-        <xsd:element name="category" minOccurs="0" maxOccurs="1" type="xsd:string"/>
-        <xsd:element name="version" minOccurs="0" maxOccurs="1" type="xsd:string"/>
-        <xsd:element name="revision" minOccurs="0" maxOccurs="1" type="xsd:string">
-          <xsd:annotation>
-            <xsd:documentation>
-                        This value indicates the number of saves or revisions. The application is responsible for updating this value after each revision.
-                    </xsd:documentation>
-          </xsd:annotation>
-        </xsd:element>
-        <xsd:element name="lastModifiedBy" minOccurs="0" maxOccurs="1" type="xsd:string"/>
-        <xsd:element ref="dcterms:modified" minOccurs="0" maxOccurs="1"/>
-        <xsd:element name="contentStatus" minOccurs="0" maxOccurs="1" type="xsd:string"/>
-      </xsd:all>
-    </xsd:complexType>
-  </xsd:schema>
-  <xs:schema xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" xmlns:xs="http://www.w3.org/2001/XMLSchema" targetNamespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" elementFormDefault="qualified" attributeFormDefault="unqualified">
-    <xs:element name="Person">
-      <xs:complexType>
-        <xs:sequence>
-          <xs:element ref="pc:DisplayName" minOccurs="0"/>
-          <xs:element ref="pc:AccountId" minOccurs="0"/>
-          <xs:element ref="pc:AccountType" minOccurs="0"/>
-        </xs:sequence>
-      </xs:complexType>
-    </xs:element>
-    <xs:element name="DisplayName" type="xs:string"/>
-    <xs:element name="AccountId" type="xs:string"/>
-    <xs:element name="AccountType" type="xs:string"/>
-    <xs:element name="BDCAssociatedEntity">
-      <xs:complexType>
-        <xs:sequence>
-          <xs:element ref="pc:BDCEntity" minOccurs="0" maxOccurs="unbounded"/>
-        </xs:sequence>
-        <xs:attribute ref="pc:EntityNamespace"/>
-        <xs:attribute ref="pc:EntityName"/>
-        <xs:attribute ref="pc:SystemInstanceName"/>
-        <xs:attribute ref="pc:AssociationName"/>
-      </xs:complexType>
-    </xs:element>
-    <xs:attribute name="EntityNamespace" type="xs:string"/>
-    <xs:attribute name="EntityName" type="xs:string"/>
-    <xs:attribute name="SystemInstanceName" type="xs:string"/>
-    <xs:attribute name="AssociationName" type="xs:string"/>
-    <xs:element name="BDCEntity">
-      <xs:complexType>
-        <xs:sequence>
-          <xs:element ref="pc:EntityDisplayName" minOccurs="0"/>
-          <xs:element ref="pc:EntityInstanceReference" minOccurs="0"/>
-          <xs:element ref="pc:EntityId1" minOccurs="0"/>
-          <xs:element ref="pc:EntityId2" minOccurs="0"/>
-          <xs:element ref="pc:EntityId3" minOccurs="0"/>
-          <xs:element ref="pc:EntityId4" minOccurs="0"/>
-          <xs:element ref="pc:EntityId5" minOccurs="0"/>
-        </xs:sequence>
-      </xs:complexType>
-    </xs:element>
-    <xs:element name="EntityDisplayName" type="xs:string"/>
-    <xs:element name="EntityInstanceReference" type="xs:string"/>
-    <xs:element name="EntityId1" type="xs:string"/>
-    <xs:element name="EntityId2" type="xs:string"/>
-    <xs:element name="EntityId3" type="xs:string"/>
-    <xs:element name="EntityId4" type="xs:string"/>
-    <xs:element name="EntityId5" type="xs:string"/>
-    <xs:element name="Terms">
-      <xs:complexType>
-        <xs:sequence>
-          <xs:element ref="pc:TermInfo" minOccurs="0" maxOccurs="unbounded"/>
-        </xs:sequence>
-      </xs:complexType>
-    </xs:element>
-    <xs:element name="TermInfo">
-      <xs:complexType>
-        <xs:sequence>
-          <xs:element ref="pc:TermName" minOccurs="0"/>
-          <xs:element ref="pc:TermId" minOccurs="0"/>
-        </xs:sequence>
-      </xs:complexType>
-    </xs:element>
-    <xs:element name="TermName" type="xs:string"/>
-    <xs:element name="TermId" type="xs:string"/>
-  </xs:schema>
-</ct:contentTypeSchema>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C331C56A-2026-461B-AEF4-C44012672CB7}"/>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A0A82033-A115-4F8B-A875-2D933216DCC5}"/>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A53277F2-A5B2-4456-A66B-748967AB6141}"/>
 </file>